--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H2">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I2">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J2">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N2">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O2">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P2">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q2">
-        <v>157.7210733518567</v>
+        <v>99.536402234815</v>
       </c>
       <c r="R2">
-        <v>1419.48966016671</v>
+        <v>895.8276201133351</v>
       </c>
       <c r="S2">
-        <v>0.007118045060342562</v>
+        <v>0.004145408776589255</v>
       </c>
       <c r="T2">
-        <v>0.007118045060342562</v>
+        <v>0.004145408776589256</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H3">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I3">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J3">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>267.08268</v>
       </c>
       <c r="O3">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P3">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q3">
-        <v>4593.072187186266</v>
+        <v>4869.329305623533</v>
       </c>
       <c r="R3">
-        <v>41337.6496846764</v>
+        <v>43823.9637506118</v>
       </c>
       <c r="S3">
-        <v>0.2072880566876585</v>
+        <v>0.2027937516971534</v>
       </c>
       <c r="T3">
-        <v>0.2072880566876585</v>
+        <v>0.2027937516971534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H4">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I4">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J4">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N4">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O4">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P4">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q4">
-        <v>1092.175483403962</v>
+        <v>1724.480081664009</v>
       </c>
       <c r="R4">
-        <v>9829.57935063566</v>
+        <v>15520.32073497608</v>
       </c>
       <c r="S4">
-        <v>0.04929052370400513</v>
+        <v>0.07181970319480703</v>
       </c>
       <c r="T4">
-        <v>0.04929052370400513</v>
+        <v>0.07181970319480703</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H5">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I5">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J5">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N5">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O5">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P5">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q5">
-        <v>9.493108064549999</v>
+        <v>8.009627225475555</v>
       </c>
       <c r="R5">
-        <v>85.43797258094999</v>
+        <v>72.08664502928001</v>
       </c>
       <c r="S5">
-        <v>0.0004284295657525895</v>
+        <v>0.0003335782512950934</v>
       </c>
       <c r="T5">
-        <v>0.0004284295657525894</v>
+        <v>0.0003335782512950935</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H6">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I6">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J6">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N6">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O6">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P6">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q6">
-        <v>59.06687174571333</v>
+        <v>35.16173614174001</v>
       </c>
       <c r="R6">
-        <v>531.60184571142</v>
+        <v>316.4556252756601</v>
       </c>
       <c r="S6">
-        <v>0.002665722758058526</v>
+        <v>0.001464386559383819</v>
       </c>
       <c r="T6">
-        <v>0.002665722758058526</v>
+        <v>0.00146438655938382</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H7">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I7">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J7">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>267.08268</v>
       </c>
       <c r="O7">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P7">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q7">
-        <v>1720.115137652533</v>
+        <v>1720.115137652534</v>
       </c>
       <c r="R7">
         <v>15481.0362388728</v>
       </c>
       <c r="S7">
-        <v>0.07762981064346115</v>
+        <v>0.07163791565971202</v>
       </c>
       <c r="T7">
-        <v>0.07762981064346115</v>
+        <v>0.07163791565971203</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H8">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I8">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J8">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N8">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O8">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P8">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q8">
-        <v>409.0220021399244</v>
+        <v>609.1812869638512</v>
       </c>
       <c r="R8">
-        <v>3681.19801925932</v>
+        <v>5482.63158267466</v>
       </c>
       <c r="S8">
-        <v>0.01845940418759673</v>
+        <v>0.02537067240542281</v>
       </c>
       <c r="T8">
-        <v>0.01845940418759673</v>
+        <v>0.02537067240542281</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H9">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I9">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J9">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N9">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O9">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P9">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q9">
-        <v>3.555188819099999</v>
+        <v>2.82944121720889</v>
       </c>
       <c r="R9">
-        <v>31.99669937189999</v>
+        <v>25.46497095488001</v>
       </c>
       <c r="S9">
-        <v>0.0001604477681680827</v>
+        <v>0.0001178381998074527</v>
       </c>
       <c r="T9">
-        <v>0.0001604477681680826</v>
+        <v>0.0001178381998074528</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H10">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I10">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J10">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N10">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O10">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P10">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q10">
-        <v>36.822618050735</v>
+        <v>20.061590368326</v>
       </c>
       <c r="R10">
-        <v>331.403562456615</v>
+        <v>180.554313314934</v>
       </c>
       <c r="S10">
-        <v>0.00166182646969559</v>
+        <v>0.0008355083257782132</v>
       </c>
       <c r="T10">
-        <v>0.00166182646969559</v>
+        <v>0.0008355083257782132</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H11">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I11">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J11">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>267.08268</v>
       </c>
       <c r="O11">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P11">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q11">
-        <v>1072.3293928574</v>
+        <v>981.41471566808</v>
       </c>
       <c r="R11">
-        <v>9650.964535716599</v>
+        <v>8832.73244101272</v>
       </c>
       <c r="S11">
-        <v>0.0483948579329073</v>
+        <v>0.04087313871568998</v>
       </c>
       <c r="T11">
-        <v>0.0483948579329073</v>
+        <v>0.04087313871568998</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H12">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I12">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J12">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N12">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O12">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P12">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q12">
-        <v>254.9866027099767</v>
+        <v>347.5694541888927</v>
       </c>
       <c r="R12">
-        <v>2294.87942438979</v>
+        <v>3128.125087700033</v>
       </c>
       <c r="S12">
-        <v>0.01150769576506889</v>
+        <v>0.01447528174134684</v>
       </c>
       <c r="T12">
-        <v>0.01150769576506889</v>
+        <v>0.01447528174134684</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H13">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I13">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J13">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N13">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O13">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P13">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q13">
-        <v>2.216324584575</v>
+        <v>1.614342660501333</v>
       </c>
       <c r="R13">
-        <v>19.946921261175</v>
+        <v>14.529083944512</v>
       </c>
       <c r="S13">
-        <v>0.0001000240356350843</v>
+        <v>6.723279205408096E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001000240356350843</v>
+        <v>6.723279205408097E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H14">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I14">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J14">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N14">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O14">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P14">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q14">
-        <v>343.5348812369393</v>
+        <v>201.883401932953</v>
       </c>
       <c r="R14">
-        <v>3091.813931132453</v>
+        <v>1816.950617396577</v>
       </c>
       <c r="S14">
-        <v>0.01550393179856697</v>
+        <v>0.008407870964094778</v>
       </c>
       <c r="T14">
-        <v>0.01550393179856697</v>
+        <v>0.008407870964094778</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H15">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I15">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J15">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>267.08268</v>
       </c>
       <c r="O15">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P15">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q15">
-        <v>10004.24657786637</v>
+        <v>9876.153279400571</v>
       </c>
       <c r="R15">
-        <v>90038.21920079735</v>
+        <v>88885.37951460514</v>
       </c>
       <c r="S15">
-        <v>0.4514975483153623</v>
+        <v>0.4113137662619676</v>
       </c>
       <c r="T15">
-        <v>0.4514975483153623</v>
+        <v>0.4113137662619676</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H16">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I16">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J16">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N16">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O16">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P16">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q16">
-        <v>2378.885503423187</v>
+        <v>3497.654100764513</v>
       </c>
       <c r="R16">
-        <v>21409.96953080868</v>
+        <v>31478.88690688062</v>
       </c>
       <c r="S16">
-        <v>0.107360505777097</v>
+        <v>0.1456673707431953</v>
       </c>
       <c r="T16">
-        <v>0.107360505777097</v>
+        <v>0.1456673707431953</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H17">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I17">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J17">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N17">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O17">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P17">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q17">
-        <v>20.67709585166999</v>
+        <v>16.24542133519289</v>
       </c>
       <c r="R17">
-        <v>186.0938626650299</v>
+        <v>146.208792016736</v>
       </c>
       <c r="S17">
-        <v>0.0009331695306236433</v>
+        <v>0.0006765757117022254</v>
       </c>
       <c r="T17">
-        <v>0.0009331695306236432</v>
+        <v>0.0006765757117022255</v>
       </c>
     </row>
   </sheetData>
